--- a/data-raw/Metadata/Trap Efficiency Summary - Metadata.xlsx
+++ b/data-raw/Metadata/Trap Efficiency Summary - Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory Starr\Desktop\EDI\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\stanislaus_rst_edi\data-raw\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3841D-E8BF-4D4D-9E94-3C1E3ED7D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10740" tabRatio="834"/>
+    <workbookView xWindow="18735" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -382,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
@@ -863,10 +864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,10 +896,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Point, LineString, LinearRing, Polygon, Multipoint, MultiLineString, MultiPolygon, MultiGeometry"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"tabular, vector, raster"</formula1>
     </dataValidation>
   </dataValidations>
@@ -907,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -961,7 +962,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"chinook, steelhead, delta_smelt, white_sturgeon, green_sturgeon"</formula1>
     </dataValidation>
   </dataValidations>
@@ -971,10 +972,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMG11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1047,7 +1050,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="7"/>
@@ -1236,19 +1239,19 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1258,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1289,7 +1292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
@@ -1357,7 +1360,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1005" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1368,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1402,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1458,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1496,7 +1499,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"CCO, CCBY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1506,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1542,7 +1545,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1552,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1599,7 +1602,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"USBR, CDWR, CDFW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1609,7 +1612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1637,14 +1640,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A38:A1002" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"completed,ongoing"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"daily, weekly, monthly, annually"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A37" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"complete, ongoing "</formula1>
     </dataValidation>
   </dataValidations>
@@ -1654,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1735,7 +1738,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G8 G3" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>F2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1745,6 +1748,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062F3A0D97C24D44188E22ED6BF629E5F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d417724eab557a4a1613df09cf549db5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0babd99f-cddb-4efe-bfbd-78b0de5d1c16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452ce7caafae2949ffe48c11a29016ca" ns2:_="">
     <xsd:import namespace="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
@@ -1934,22 +1952,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4324EA-0DD5-429A-A6A3-8853D3F17487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9B1783C-B3FB-44F3-8C80-B8883BF74C35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1965,28 +1992,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7069DB4E-2E54-4EC8-AFE1-B50A3BCE1246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4324EA-0DD5-429A-A6A3-8853D3F17487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0babd99f-cddb-4efe-bfbd-78b0de5d1c16"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>